--- a/data/balance_sheet/3digits/total/051_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/051_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>051-Mining of hard coal</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>051-Mining of hard coal</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,18 +915,23 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
-        <v>363465.15112</v>
+        <v>363465.1511199999</v>
       </c>
       <c r="D5" s="32" t="n">
-        <v>334299.9699900001</v>
+        <v>334299.96999</v>
       </c>
       <c r="E5" s="32" t="n">
         <v>366987.51169</v>
@@ -1493,29 +943,34 @@
         <v>324298.84206</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>475077.06644</v>
+        <v>475077.0664400001</v>
       </c>
       <c r="I5" s="32" t="n">
         <v>394779.43027</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>597690.09494</v>
+        <v>597688.95008</v>
       </c>
       <c r="K5" s="32" t="n">
-        <v>633296.27094</v>
+        <v>633296.2709400001</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>581753.45774</v>
+        <v>582028.78341</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>886693.1986099998</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>887503.3070700001</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>1298993.661</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>24404.1973</v>
@@ -1533,35 +988,40 @@
         <v>29731.20887</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>99103.77576999998</v>
+        <v>99103.77576999999</v>
       </c>
       <c r="I6" s="23" t="n">
         <v>15931.29855</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>39032.99877000001</v>
+        <v>39032.99978</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>22875.7684</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>199624.45949</v>
+        <v>199641.55067</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>214366.45087</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>214387.7217</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>146323.163</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
-        <v>4213.672560000001</v>
+        <v>4213.67256</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>19540.06054</v>
+        <v>19540.06053999999</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>19036.95148</v>
@@ -1579,23 +1039,28 @@
         <v>2849.32135</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>3995.35885</v>
+        <v>3995.35886</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>2732.509309999999</v>
+        <v>2732.50931</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>3992.23083</v>
+        <v>4009.24251</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>5691.150809999999</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>5712.34969</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>5175.501</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>2908.73265</v>
@@ -1610,19 +1075,19 @@
         <v>2618.86444</v>
       </c>
       <c r="G8" s="22" t="n">
-        <v>3210.551240000001</v>
+        <v>3210.55124</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6673.487700000001</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>4431.35502</v>
+        <v>4431.355020000001</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>3981.92789</v>
       </c>
       <c r="K8" s="22" t="n">
-        <v>5409.47772</v>
+        <v>5409.477720000001</v>
       </c>
       <c r="L8" s="22" t="n">
         <v>6176.3275</v>
@@ -1630,52 +1095,62 @@
       <c r="M8" s="22" t="n">
         <v>9795.49172</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>8846.156000000001</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>17856.46202</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>4093.84345</v>
+        <v>4093.843449999999</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>12194.73015</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>4139.92762</v>
+        <v>4139.927619999999</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>7592.12008</v>
+        <v>7592.120080000001</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>75427.67343</v>
+        <v>75427.67343000001</v>
       </c>
       <c r="I9" s="22" t="n">
         <v>9204.899649999999</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>31306.61436</v>
+        <v>31306.61536</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>16486.94545</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>190904.2719</v>
+        <v>190904.3514</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>199712.0753</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>199712.14725</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>132782.13</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>590.7351200000001</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>832.2669599999999</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>480.714</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>16.06519</v>
@@ -1730,7 +1210,7 @@
         <v>73.74628</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>78.81636</v>
+        <v>78.81635999999999</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>404.06403</v>
@@ -1750,12 +1230,17 @@
       <c r="M11" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>190.78549</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>389.70414</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>2049.435</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>190.78549</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0.00174</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>0</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>389.7024</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>2049.433</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,18 +1500,23 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>41101.86209</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>92579.16811000001</v>
+        <v>92579.16811</v>
       </c>
       <c r="E18" s="23" t="n">
         <v>114914.5201</v>
@@ -2010,7 +1525,7 @@
         <v>78131.66640999999</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>62049.77610999999</v>
+        <v>62049.77611000001</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>91316.02455</v>
@@ -2030,12 +1545,17 @@
       <c r="M18" s="23" t="n">
         <v>270126.63002</v>
       </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+      <c r="N18" s="23" t="n">
+        <v>473186.142</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>32225.51048</v>
@@ -2059,7 +1579,7 @@
         <v>55843.60737999999</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>75551.75317</v>
+        <v>75551.75317000001</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>130781.42008</v>
@@ -2070,12 +1590,17 @@
       <c r="M19" s="22" t="n">
         <v>206923.04354</v>
       </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+      <c r="N19" s="22" t="n">
+        <v>351753.802</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>3064.03027</v>
@@ -2090,7 +1615,7 @@
         <v>2575.0442</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>7550.93377</v>
+        <v>7550.933770000001</v>
       </c>
       <c r="H20" s="21" t="n">
         <v>14590.99467</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>41867.94858</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>76411.78599999999</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>200.54255</v>
@@ -2210,10 +1750,10 @@
         <v>2545.30575</v>
       </c>
       <c r="G23" s="22" t="n">
-        <v>516.74131</v>
+        <v>516.7413099999999</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>444.08621</v>
+        <v>444.0862099999999</v>
       </c>
       <c r="I23" s="22" t="n">
         <v>466.82145</v>
@@ -2222,20 +1762,25 @@
         <v>2178.22374</v>
       </c>
       <c r="K23" s="22" t="n">
-        <v>570.84403</v>
+        <v>570.8440299999999</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>694.55078</v>
+        <v>694.5507799999999</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>734.4023300000001</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>734.40233</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>1160.195</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>5611.105789999999</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>18741.7948</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>38844.412</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>1170.16299</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>5057.58679</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>17221.371</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>1169.48999</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>3198.14602</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>12205.424</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>137973.75569</v>
@@ -2367,7 +1927,7 @@
         <v>96774.19386</v>
       </c>
       <c r="F27" s="33" t="n">
-        <v>41093.91352</v>
+        <v>41093.91351999999</v>
       </c>
       <c r="G27" s="23" t="n">
         <v>52588.73636</v>
@@ -2382,20 +1942,25 @@
         <v>74824.54309000001</v>
       </c>
       <c r="K27" s="23" t="n">
-        <v>51336.8414</v>
+        <v>51336.84139999999</v>
       </c>
       <c r="L27" s="23" t="n">
         <v>35817.35419</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>87174.42362999999</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>87174.42363</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>114254.1</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>1253.2703</v>
@@ -2404,7 +1969,7 @@
         <v>2201.1922</v>
       </c>
       <c r="E28" s="22" t="n">
-        <v>941.07417</v>
+        <v>941.0741700000001</v>
       </c>
       <c r="F28" s="21" t="n">
         <v>252.51506</v>
@@ -2430,12 +1995,17 @@
       <c r="M28" s="22" t="n">
         <v>59626.30768000001</v>
       </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+      <c r="N28" s="22" t="n">
+        <v>75396.141</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>134698.27849</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>11935.87553</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>11893.46</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>274.14697</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>57.5</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>156.353</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>1748.05993</v>
@@ -2564,7 +2149,7 @@
         <v>5112.5871</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>8234.242129999999</v>
+        <v>8234.242130000001</v>
       </c>
       <c r="F32" s="21" t="n">
         <v>7709.86382</v>
@@ -2579,7 +2164,7 @@
         <v>12141.4461</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>5081.078209999999</v>
+        <v>5081.078210000001</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>7200.635949999999</v>
@@ -2590,12 +2175,17 @@
       <c r="M32" s="22" t="n">
         <v>14954.74042</v>
       </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+      <c r="N32" s="22" t="n">
+        <v>26808.146</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>255.6524</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>255.6524</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>89387.94219</v>
@@ -2745,17 +2350,22 @@
         <v>305380.45108</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>185879.6718</v>
+        <v>186028.62616</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>223563.48296</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>224138.49807</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>225327.496</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>28537.87142</v>
@@ -2767,7 +2377,7 @@
         <v>44947.17693000001</v>
       </c>
       <c r="F37" s="21" t="n">
-        <v>55392.67096999999</v>
+        <v>55392.67097</v>
       </c>
       <c r="G37" s="22" t="n">
         <v>59796.5974</v>
@@ -2776,26 +2386,31 @@
         <v>59548.20218</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>69547.34768000001</v>
+        <v>69547.34767999999</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>79940.49526000001</v>
       </c>
       <c r="K37" s="22" t="n">
-        <v>82333.99624000001</v>
+        <v>82333.99623999999</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>40410.03858</v>
+        <v>40427.87429</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>51091.85683</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>51109.69254</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>48269.659</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>18361.37257</v>
@@ -2828,14 +2443,19 @@
         <v>43913.22683</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>38832.93028</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>38832.93027999999</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>40126.182</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>20102.08254</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>7537.648970000001</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>18370.293</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>5827.92425</v>
@@ -2893,10 +2518,10 @@
         <v>11018.49605</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>8010.391799999999</v>
+        <v>8010.3918</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>9470.343879999999</v>
+        <v>9470.34388</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>8933.07955</v>
@@ -2905,17 +2530,22 @@
         <v>10660.72587</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>9245.43072</v>
+        <v>9376.549369999999</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>13832.40906</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>14378.46346</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>15921.885</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>4236.8407</v>
@@ -2942,20 +2572,25 @@
         <v>1745.62843</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>2560.474650000001</v>
+        <v>2560.47465</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>986.9888400000001</v>
+        <v>986.98884</v>
       </c>
       <c r="M41" s="22" t="n">
         <v>2037.44749</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>1121.25</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>12321.85071</v>
@@ -3025,17 +2665,22 @@
         <v>119300.9568</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>72090.15413</v>
+        <v>72090.15413000001</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>110231.19033</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>110242.31533</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>101518.227</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>51818.89996</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>52841.88604</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>281226.655</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>51818.89996</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>52841.88604</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>281226.655</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,21 +2850,26 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5040.3677</v>
+        <v>5040.367699999999</v>
       </c>
       <c r="D48" s="46" t="n">
         <v>3564.99532</v>
       </c>
       <c r="E48" s="46" t="n">
-        <v>4621.58259</v>
+        <v>4621.582590000001</v>
       </c>
       <c r="F48" s="45" t="n">
         <v>10151.52291</v>
@@ -3225,20 +2890,25 @@
         <v>13009.28516</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>7771.846270000001</v>
+        <v>7776.271880000001</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>8990.142280000002</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>8997.109119999999</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>14487.601</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
-        <v>2990.76052</v>
+        <v>2990.760519999999</v>
       </c>
       <c r="D49" s="22" t="n">
         <v>3497.14705</v>
@@ -3265,17 +2935,22 @@
         <v>10938.59859</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>7001.705680000001</v>
+        <v>7006.13129</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>7691.74266</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>7698.7095</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>5151.904</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>2049.60718</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>1298.39962</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>9335.697</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>13547.3407</v>
@@ -3339,23 +3019,28 @@
         <v>35515.93073000001</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>57702.46662</v>
+        <v>57701.32075</v>
       </c>
       <c r="K51" s="46" t="n">
-        <v>88269.86951</v>
+        <v>88269.86950999999</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>22835.67246</v>
+        <v>22940.52698</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>29240.47867</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>29447.33435</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>42139.069</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>10678.46699</v>
@@ -3364,7 +3049,7 @@
         <v>6858.85182</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>5990.021600000001</v>
+        <v>5990.0216</v>
       </c>
       <c r="F52" s="21" t="n">
         <v>10583.06436</v>
@@ -3379,23 +3064,28 @@
         <v>28081.26723</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>52731.52576</v>
+        <v>52730.37989</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>83464.61839000002</v>
+        <v>83464.61839</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>22049.94859</v>
+        <v>22154.80311</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>25192.98876</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>25399.84444</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>28880.832</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>731.59114</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>6.181310000000001</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>1.7451</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>137.97183</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>21.437</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>399.89773</v>
@@ -3502,7 +3202,7 @@
         <v>60.12512</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>727.8397199999999</v>
+        <v>727.8397200000001</v>
       </c>
       <c r="L55" s="22" t="n">
         <v>38.53887</v>
@@ -3510,12 +3210,17 @@
       <c r="M55" s="22" t="n">
         <v>240.55438</v>
       </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+      <c r="N55" s="22" t="n">
+        <v>8619.771000000001</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>7.12048</v>
@@ -3524,7 +3229,7 @@
         <v>26.08341</v>
       </c>
       <c r="E56" s="22" t="n">
-        <v>39.31546</v>
+        <v>39.31546000000001</v>
       </c>
       <c r="F56" s="21" t="n">
         <v>54.73379</v>
@@ -3539,7 +3244,7 @@
         <v>920.62248</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>951.51553</v>
+        <v>951.5155299999999</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>3234.08222</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>3610.63495</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>4511.65</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>418.152</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>52.14744</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>101.249</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>1310.36726</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,15 +3434,20 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
-        <v>667211.95129</v>
+        <v>667211.9512900001</v>
       </c>
       <c r="D61" s="36" t="n">
         <v>718786.6272699999</v>
@@ -3741,20 +3471,25 @@
         <v>1781428.40395</v>
       </c>
       <c r="K61" s="36" t="n">
-        <v>2766050.958589999</v>
+        <v>2766050.95859</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>1927554.15549</v>
+        <v>1928813.5623</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>1904866.52905</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>1906238.96212</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>2087260.594</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>618.37116</v>
@@ -3784,17 +3519,22 @@
         <v>16708.70173</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>21634.87587</v>
+        <v>21701.47587</v>
       </c>
       <c r="M62" s="36" t="n">
         <v>8418.20852</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>11840.143</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>618.37116</v>
@@ -3984,17 +3744,22 @@
         <v>571.29346</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>5998.8926</v>
+        <v>6065.4926</v>
       </c>
       <c r="M67" s="22" t="n">
         <v>8415.20852</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>11837.143</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>10516.03227</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>136715.75534</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>142881.804</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>668.85488</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>6297.81966</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>169.37</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>1040.8299</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>1316.748</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>9767.0609</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>80.11649</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>129377.10578</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>141395.686</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>203173.05995</v>
@@ -4375,7 +4185,7 @@
         <v>14389.55546</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>71864.13043999998</v>
+        <v>71864.13043999999</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>79447.57090999999</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>271997.62609</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>268247.626</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>2.74932</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>2.749</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>161689.69745</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>13971.87826</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>13971.878</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>15.6375</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>79999</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>261272.99851</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>254272.999</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>38500</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>3250</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>409796.26089</v>
@@ -4803,7 +4668,7 @@
         <v>446770.37168</v>
       </c>
       <c r="E88" s="23" t="n">
-        <v>648161.2369199999</v>
+        <v>648161.2369200001</v>
       </c>
       <c r="F88" s="33" t="n">
         <v>743459.27428</v>
@@ -4824,23 +4689,28 @@
         <v>2285323.92728</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>1438317.76237</v>
+        <v>1438527.05774</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>1345398.13956</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>1345797.48248</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>1475930.744</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>2655.59446</v>
       </c>
       <c r="D89" s="22" t="n">
-        <v>3512.494619999999</v>
+        <v>3512.49462</v>
       </c>
       <c r="E89" s="22" t="n">
         <v>3761.28712</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>27065.81865</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>79353.31299999999</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>252893.89736</v>
@@ -4883,7 +4758,7 @@
         <v>263019.8604</v>
       </c>
       <c r="E90" s="22" t="n">
-        <v>289361.5400899999</v>
+        <v>289361.54009</v>
       </c>
       <c r="F90" s="21" t="n">
         <v>320663.15322</v>
@@ -4904,17 +4779,22 @@
         <v>360215.64222</v>
       </c>
       <c r="L90" s="22" t="n">
-        <v>22980.80371</v>
+        <v>23004.62818</v>
       </c>
       <c r="M90" s="22" t="n">
-        <v>24399.94677</v>
-      </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+        <v>24423.77124</v>
+      </c>
+      <c r="N90" s="22" t="n">
+        <v>25791.227</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>166793.17924</v>
@@ -4935,13 +4815,13 @@
         <v>94497.49997</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>40875.64935999999</v>
+        <v>40875.64936</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>40941.11766</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>42099.47796</v>
+        <v>42099.47796000001</v>
       </c>
       <c r="L91" s="22" t="n">
         <v>12722.59559</v>
@@ -4949,12 +4829,17 @@
       <c r="M91" s="22" t="n">
         <v>21369.18403</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>22603.586</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>247984.5707</v>
@@ -4978,29 +4863,34 @@
         <v>327743.27117</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>350056.5263900001</v>
+        <v>350056.52639</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>383789.84724</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>68795.53406000001</v>
+        <v>68941.51007999999</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>79914.34808999998</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>80060.32411</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>99839.97199999999</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>28407.63464</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>29665.90069000001</v>
+        <v>29665.90069</v>
       </c>
       <c r="E93" s="22" t="n">
         <v>23650.64694</v>
@@ -5021,20 +4911,25 @@
         <v>18603.30699</v>
       </c>
       <c r="K93" s="22" t="n">
-        <v>24111.75009</v>
+        <v>24111.75009000001</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>16913.56602</v>
+        <v>16955.11566</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>42942.50499</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>43160.86869</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>36328.023</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>10744.74462</v>
@@ -5064,17 +4959,22 @@
         <v>15957.23207</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>12946.23546</v>
+        <v>12958.5001</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>15054.92087</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>15093.03551</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>18671.339</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>1692.36885</v>
@@ -5101,7 +5001,7 @@
         <v>5277.18904</v>
       </c>
       <c r="K95" s="22" t="n">
-        <v>5865.267229999999</v>
+        <v>5865.26723</v>
       </c>
       <c r="L95" s="22" t="n">
         <v>20596.00699</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>20621.01712</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>20662.233</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>357432.8608</v>
@@ -5135,26 +5040,31 @@
         <v>457354.37455</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>464259.6699500001</v>
+        <v>464259.66995</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>488412.4888399999</v>
+        <v>488412.48884</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>525429.64896</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>78525.95568</v>
+        <v>78540.27507999999</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>87245.28307</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>87272.21898000001</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>97683.13800000001</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>53412.85387000001</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>1200347.82626</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>1268368.734</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>2644.27795</v>
@@ -5203,13 +5118,13 @@
         <v>1697.78284</v>
       </c>
       <c r="E98" s="22" t="n">
-        <v>7505.524310000001</v>
+        <v>7505.52431</v>
       </c>
       <c r="F98" s="21" t="n">
         <v>15696.41887</v>
       </c>
       <c r="G98" s="22" t="n">
-        <v>4595.211880000001</v>
+        <v>4595.21188</v>
       </c>
       <c r="H98" s="21" t="n">
         <v>54448.8659</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>927.85585</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>1995.455</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>4443.39073</v>
@@ -5243,7 +5163,7 @@
         <v>5409.6913</v>
       </c>
       <c r="E99" s="23" t="n">
-        <v>6419.631340000001</v>
+        <v>6419.63134</v>
       </c>
       <c r="F99" s="33" t="n">
         <v>10700.59301</v>
@@ -5255,26 +5175,31 @@
         <v>8874.299929999999</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>8663.80503</v>
+        <v>8663.805030000001</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>9504.953129999998</v>
       </c>
       <c r="K99" s="23" t="n">
-        <v>9376.412770000001</v>
+        <v>9376.412769999999</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>34454.39359</v>
+        <v>34548.70503</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>45674.31988</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>45753.33003000001</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>54467.419</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>1818.83265</v>
@@ -5283,10 +5208,10 @@
         <v>3077.31712</v>
       </c>
       <c r="E100" s="22" t="n">
-        <v>3516.80727</v>
+        <v>3516.807270000001</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>5624.350919999999</v>
+        <v>5624.35092</v>
       </c>
       <c r="G100" s="22" t="n">
         <v>4351.62138</v>
@@ -5304,17 +5229,22 @@
         <v>5310.46749</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>32692.92913</v>
+        <v>32738.10313</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>42608.40146</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>42638.98546</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>51044.49</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>15.6</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>18.58701</v>
@@ -5381,20 +5316,25 @@
         <v>70.09805</v>
       </c>
       <c r="K102" s="22" t="n">
-        <v>60.12733</v>
+        <v>60.12732999999999</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>63.52586</v>
+        <v>69.26548</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>79.57306000000001</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>84.98247000000001</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>92.47199999999999</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>1267.03732</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>1267.038</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>2056.95142</v>
@@ -5458,29 +5403,34 @@
         <v>6897.347839999999</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>7837.77214</v>
+        <v>7837.772139999999</v>
       </c>
       <c r="K104" s="22" t="n">
-        <v>9392.754899999998</v>
+        <v>9392.7549</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>7003.661950000001</v>
+        <v>7059.62132</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>10148.05606</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>10204.01543</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>12187.24</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>769.16838</v>
       </c>
       <c r="D105" s="22" t="n">
-        <v>657.6473000000001</v>
+        <v>657.6473</v>
       </c>
       <c r="E105" s="22" t="n">
         <v>475.15321</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>377.99903</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>438.283</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>1295.14873</v>
@@ -5541,20 +5496,25 @@
         <v>5862.227980000001</v>
       </c>
       <c r="K106" s="22" t="n">
-        <v>6973.28231</v>
+        <v>6973.282310000001</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>6842.82835</v>
+        <v>6855.3899</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>8822.34705</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>8835.28968</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>10577.704</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>1075</v>
@@ -5589,15 +5549,20 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
-        <v>35938.57773999999</v>
+        <v>35938.57774</v>
       </c>
       <c r="D108" s="23" t="n">
         <v>43246.76740999999</v>
@@ -5624,17 +5589,22 @@
         <v>137793.97696</v>
       </c>
       <c r="L108" s="23" t="n">
-        <v>50118.0754</v>
+        <v>51007.2754</v>
       </c>
       <c r="M108" s="23" t="n">
-        <v>65736.61229</v>
-      </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+        <v>66625.81229</v>
+      </c>
+      <c r="N108" s="23" t="n">
+        <v>95167.189</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>848.4281</v>
@@ -5649,7 +5619,7 @@
         <v>1246.08666</v>
       </c>
       <c r="G109" s="22" t="n">
-        <v>4785.04402</v>
+        <v>4785.044019999999</v>
       </c>
       <c r="H109" s="21" t="n">
         <v>4868.891820000001</v>
@@ -5669,15 +5639,20 @@
       <c r="M109" s="22" t="n">
         <v>6177.04119</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>13542.427</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
-        <v>50515.34515</v>
+        <v>50515.34515000001</v>
       </c>
       <c r="D110" s="22" t="n">
         <v>66390.12875</v>
@@ -5704,17 +5679,22 @@
         <v>197021.24581</v>
       </c>
       <c r="L110" s="22" t="n">
-        <v>52072.10136</v>
+        <v>52961.30136</v>
       </c>
       <c r="M110" s="22" t="n">
-        <v>67684.13172</v>
-      </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+        <v>68573.33172</v>
+      </c>
+      <c r="N110" s="22" t="n">
+        <v>95665.167</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>1415.60172</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>1342.74492</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>16840.79723</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>9467.305539999999</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>14040.405</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>1796.44342</v>
@@ -5867,14 +5862,19 @@
         <v>20555.00979</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>27265.79708</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>27270.67708</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>36940.676</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>1796.44342</v>
@@ -5907,14 +5907,19 @@
         <v>20555.00979</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>27265.79708</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>27270.67708</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>36940.676</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>929.81513</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>3660.07029</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>1784.993</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.00233</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>238.161</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>238.161</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>929.8128</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>2964.96417</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>1095.87</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>206.661</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>206.661</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>663.60612</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>657.574</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>1030677.10241</v>
@@ -6378,20 +6438,23 @@
         <v>1815246.95549</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>2379118.49889</v>
+        <v>2379117.35403</v>
       </c>
       <c r="K127" s="23" t="n">
-        <v>3399347.229529999</v>
+        <v>3399347.22953</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>2509307.61323</v>
+        <v>2510842.34571</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>2791559.72766</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>2793742.26919</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>3386254.255</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>051-Mining of hard coal</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,18 +6553,23 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>434618.64251</v>
       </c>
       <c r="D132" s="23" t="n">
-        <v>516183.6585499999</v>
+        <v>516183.65855</v>
       </c>
       <c r="E132" s="23" t="n">
         <v>372863.6574500001</v>
@@ -6507,26 +6584,31 @@
         <v>692389.39771</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>827324.7248499999</v>
+        <v>827324.72485</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>987750.41377</v>
+        <v>987750.1703299999</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>1175618.14109</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>938984.1899700002</v>
+        <v>940048.7914700001</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1453023.60545</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1455079.81069</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>1524429.059</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>20269.79991</v>
@@ -6561,12 +6643,17 @@
       <c r="M133" s="23" t="n">
         <v>94730.57165000001</v>
       </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+      <c r="N133" s="23" t="n">
+        <v>61177.264</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>20077.01408</v>
@@ -6596,17 +6683,22 @@
         <v>12685.93227</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>7025.940020000001</v>
+        <v>7025.94002</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>90865.91773999999</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>90865.91774</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>60657.544</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>108.20115</v>
@@ -6627,7 +6719,7 @@
         <v>320.94914</v>
       </c>
       <c r="I135" s="22" t="n">
-        <v>525.9954799999999</v>
+        <v>525.99548</v>
       </c>
       <c r="J135" s="21" t="n">
         <v>737.8895799999999</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>4031.01381</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>274.438</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>24.55872</v>
@@ -6667,7 +6764,7 @@
         <v>9.992899999999999</v>
       </c>
       <c r="I136" s="22" t="n">
-        <v>47.66903</v>
+        <v>47.66902999999999</v>
       </c>
       <c r="J136" s="21" t="n">
         <v>97.94547</v>
@@ -6679,14 +6776,19 @@
         <v>262.97259</v>
       </c>
       <c r="M136" s="22" t="n">
-        <v>563.3367999999999</v>
-      </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+        <v>563.3368</v>
+      </c>
+      <c r="N136" s="22" t="n">
+        <v>58.847</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>109.1434</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6904,7 +7031,7 @@
         <v>255.8625</v>
       </c>
       <c r="H142" s="21" t="n">
-        <v>74.06532000000001</v>
+        <v>74.06531999999999</v>
       </c>
       <c r="I142" s="22" t="n">
         <v>231.90716</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>396.9769</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>304.129</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>52131.52997</v>
@@ -6953,26 +7085,31 @@
         <v>497944.06461</v>
       </c>
       <c r="K143" s="46" t="n">
-        <v>618089.42507</v>
+        <v>618089.4250699999</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>464742.97855</v>
+        <v>465113.7436099999</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>714212.2882599999</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>715532.7365899999</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>498546.605</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>39097.70567</v>
       </c>
       <c r="D144" s="25" t="n">
-        <v>78651.95938000001</v>
+        <v>78651.95938</v>
       </c>
       <c r="E144" s="25" t="n">
         <v>157537.57627</v>
@@ -6996,17 +7133,22 @@
         <v>563582.68382</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>441938.88306</v>
+        <v>442309.6481200001</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>563194.5053000001</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>564514.95363</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>317648.526</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>10509.88842</v>
@@ -7039,14 +7181,19 @@
         <v>14836.5385</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>57370.42432</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>57370.42431999999</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>54617.941</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>553.48054</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>12075.09814</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>21867.084</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>1970.45534</v>
@@ -7153,7 +7310,7 @@
         <v>1143.87562</v>
       </c>
       <c r="K148" s="25" t="n">
-        <v>894.2246100000001</v>
+        <v>894.22461</v>
       </c>
       <c r="L148" s="25" t="n">
         <v>1777.74952</v>
@@ -7161,12 +7318,17 @@
       <c r="M148" s="25" t="n">
         <v>81572.2605</v>
       </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+      <c r="N148" s="25" t="n">
+        <v>104413.054</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>226984.53536</v>
@@ -7178,7 +7340,7 @@
         <v>76514.19447</v>
       </c>
       <c r="F149" s="33" t="n">
-        <v>88430.88105999999</v>
+        <v>88430.88106</v>
       </c>
       <c r="G149" s="23" t="n">
         <v>108730.94761</v>
@@ -7190,23 +7352,28 @@
         <v>174226.08752</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>169216.04499</v>
+        <v>169215.80155</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>162700.62813</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>149640.08392</v>
+        <v>150131.20003</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>184680.67298</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>185177.59417</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>208832.348</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>10687.29029</v>
@@ -7215,7 +7382,7 @@
         <v>20468.70304</v>
       </c>
       <c r="E150" s="22" t="n">
-        <v>50407.82634000001</v>
+        <v>50407.82634</v>
       </c>
       <c r="F150" s="21" t="n">
         <v>58254.8605</v>
@@ -7224,29 +7391,34 @@
         <v>19481.91744</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>43181.24712</v>
+        <v>43181.24711999999</v>
       </c>
       <c r="I150" s="22" t="n">
         <v>62089.99054</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>61409.19185</v>
+        <v>61408.94841</v>
       </c>
       <c r="K150" s="22" t="n">
-        <v>74338.90316</v>
+        <v>74338.90316000002</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>93264.88464</v>
+        <v>93722.1243</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>125333.75079</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>125775.79326</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>140976.685</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>9996.218919999999</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>2342.922</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>211416.03753</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>2117.2537</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>4729.428</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>2569.66032</v>
@@ -7356,17 +7538,22 @@
         <v>34991.15251000001</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>45112.48796</v>
+        <v>45117.39403999999</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>34652.87712999999</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>34657.78320999999</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>41825.904</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>2311.54722</v>
@@ -7375,7 +7562,7 @@
         <v>4978.427140000001</v>
       </c>
       <c r="E154" s="22" t="n">
-        <v>5106.810719999999</v>
+        <v>5106.81072</v>
       </c>
       <c r="F154" s="21" t="n">
         <v>5163.755530000001</v>
@@ -7384,10 +7571,10 @@
         <v>11872.6117</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>70569.24608</v>
+        <v>70569.24608000001</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>47960.09819999999</v>
+        <v>47960.0982</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>11488.642</v>
@@ -7396,17 +7583,22 @@
         <v>16771.85062</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>10308.08902</v>
+        <v>10337.05939</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>12580.57244</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>12630.54508</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>18957.409</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>15325.80496</v>
@@ -7458,7 +7655,7 @@
         <v>16257.47965</v>
       </c>
       <c r="F156" s="33" t="n">
-        <v>45030.59398000001</v>
+        <v>45030.59398</v>
       </c>
       <c r="G156" s="23" t="n">
         <v>44476.58609</v>
@@ -7476,17 +7673,22 @@
         <v>143274.61718</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>76137.35714000001</v>
+        <v>76217.61567999999</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>142016.39899</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>142096.65753</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>150717.922</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>12048.80118</v>
@@ -7498,7 +7700,7 @@
         <v>13995.69748</v>
       </c>
       <c r="F157" s="21" t="n">
-        <v>42769.87098000001</v>
+        <v>42769.87098</v>
       </c>
       <c r="G157" s="22" t="n">
         <v>42195.86309000001</v>
@@ -7516,17 +7718,22 @@
         <v>143220.64109</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>76134.43925</v>
+        <v>76214.69779000001</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>142016.39747</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>142096.65601</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>150717.92</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>3277.00378</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>0.00152</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>35279.93564</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>132277.69284</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>312516.657</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>35279.93564</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>132277.69284</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>312516.657</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>30619.11048</v>
@@ -7716,17 +7943,22 @@
         <v>107820.5783</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>119841.80694</v>
+        <v>119964.26873</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>178153.21134</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>178311.78852</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>265607.118</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>7166.84675</v>
@@ -7735,13 +7967,13 @@
         <v>5975.02199</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>6363.03981</v>
+        <v>6363.039809999999</v>
       </c>
       <c r="F163" s="21" t="n">
-        <v>6774.820430000001</v>
+        <v>6774.82043</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>7333.599590000001</v>
+        <v>7333.59959</v>
       </c>
       <c r="H163" s="21" t="n">
         <v>18799.29937</v>
@@ -7756,17 +7988,22 @@
         <v>15588.25732</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>15908.20131</v>
+        <v>15909.31756</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>26554.54983</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>26560.53875</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>75472.255</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>18033.13131</v>
@@ -7790,29 +8027,34 @@
         <v>27298.56234</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>34901.63264999999</v>
+        <v>34901.63265</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>30393.6209</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>19460.44651</v>
+        <v>19465.92544</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>31613.68295</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>31643.8103</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>23807.404</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
-        <v>5382.76574</v>
+        <v>5382.765739999999</v>
       </c>
       <c r="D165" s="22" t="n">
-        <v>7507.2089</v>
+        <v>7507.208900000001</v>
       </c>
       <c r="E165" s="22" t="n">
         <v>6420.73326</v>
@@ -7836,17 +8078,22 @@
         <v>60495.83812000001</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>83554.64306</v>
+        <v>83670.50967</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>119104.32887</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>119226.78978</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>165413.832</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>36.36668</v>
@@ -7881,12 +8128,17 @@
       <c r="M166" s="22" t="n">
         <v>880.64969</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>913.627</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>486.44548</v>
@@ -7901,16 +8153,16 @@
         <v>378.28413</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>527.1477000000001</v>
+        <v>527.1477</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>627.4750000000001</v>
+        <v>627.475</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>962.63572</v>
+        <v>962.6357200000001</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>552.2173300000001</v>
+        <v>552.2173299999999</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>677.19449</v>
@@ -7921,18 +8173,23 @@
       <c r="M167" s="23" t="n">
         <v>4494.49292</v>
       </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+      <c r="N167" s="23" t="n">
+        <v>3529.25</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>1845.10239</v>
       </c>
       <c r="D168" s="22" t="n">
-        <v>849.0597399999999</v>
+        <v>849.05974</v>
       </c>
       <c r="E168" s="22" t="n">
         <v>1582.76612</v>
@@ -7961,24 +8218,29 @@
       <c r="M168" s="22" t="n">
         <v>12805.42233</v>
       </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+      <c r="N168" s="22" t="n">
+        <v>33309.959</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>1360.41961</v>
       </c>
       <c r="D169" s="22" t="n">
-        <v>-14.19361000000004</v>
+        <v>-14.19360999999999</v>
       </c>
       <c r="E169" s="22" t="n">
         <v>1243.61277</v>
       </c>
       <c r="F169" s="21" t="n">
-        <v>533.4560299999999</v>
+        <v>533.4560300000001</v>
       </c>
       <c r="G169" s="22" t="n">
         <v>117.04364</v>
@@ -8001,12 +8263,17 @@
       <c r="M169" s="22" t="n">
         <v>8310.929410000001</v>
       </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+      <c r="N169" s="22" t="n">
+        <v>29780.709</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>1.7627</v>
@@ -8121,18 +8398,23 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>50946.58219</v>
       </c>
       <c r="D173" s="23" t="n">
-        <v>44735.49127000001</v>
+        <v>44735.49127</v>
       </c>
       <c r="E173" s="23" t="n">
         <v>47034.41894</v>
@@ -8144,29 +8426,34 @@
         <v>57016.74376999999</v>
       </c>
       <c r="H173" s="33" t="n">
-        <v>60248.81431999999</v>
+        <v>60248.81432</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>80662.05033000001</v>
+        <v>80662.05033</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>96307.21550999999</v>
+        <v>96307.21551000001</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>126693.97803</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>692.71631</v>
+        <v>692.7163099999999</v>
       </c>
       <c r="M173" s="23" t="n">
         <v>2457.81884</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>23356.165</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>9695.590380000001</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>0.7764800000000001</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>41250.99181</v>
@@ -8215,7 +8507,7 @@
         <v>44735.49127000001</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>47009.81035</v>
+        <v>47009.81034999999</v>
       </c>
       <c r="F175" s="21" t="n">
         <v>52066.45776999999</v>
@@ -8227,26 +8519,31 @@
         <v>59920.8181</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>80461.42224</v>
+        <v>80461.42224000001</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>96252.63268</v>
+        <v>96252.63268000001</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>126659.22481</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>691.9398299999999</v>
+        <v>691.93983</v>
       </c>
       <c r="M175" s="22" t="n">
         <v>2457.04236</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>23355.389</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>2574.89852</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>0.45763</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>145.73</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>1098.37295</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>0.45763</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>144.438</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>1476.52557</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>46475.66592</v>
@@ -8507,26 +8834,31 @@
         <v>203180.15896</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>338142.18646</v>
+        <v>338142.1864600001</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>724066.8221199999</v>
+        <v>724066.82212</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>1381869.20164</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>957844.11641</v>
+        <v>958729.88477</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>733420.2543299999</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>734306.02269</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>1145888.659</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>13291.95212</v>
@@ -8550,7 +8882,7 @@
         <v>200401.44885</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>398969.76618</v>
+        <v>398969.7661799999</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>678102.4126</v>
@@ -8561,12 +8893,17 @@
       <c r="M183" s="23" t="n">
         <v>30824.75146</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>46206.857</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>13066.29657</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>25304.48849</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>36780.484</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>225.65555</v>
@@ -8627,7 +8969,7 @@
         <v>41690.55016000001</v>
       </c>
       <c r="I185" s="22" t="n">
-        <v>39594.28965</v>
+        <v>39594.28965000001</v>
       </c>
       <c r="J185" s="21" t="n">
         <v>32327.66393</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>6890.97391</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>10233.928</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>0</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>1370.71094</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>807.5549999999999</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>492.47773</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>149606.68069</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>191326.456</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>492.47773</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>140259.53019</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>180452.954</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>9347.1505</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>10873.502</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>31938.53693</v>
@@ -9116,17 +9518,22 @@
         <v>562434.1686699999</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>749189.1815000001</v>
+        <v>750074.9498600001</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>549622.1379899998</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>550507.9063500001</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>904620.3199999999</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>11331.61616</v>
@@ -9153,20 +9560,25 @@
         <v>311715.00628</v>
       </c>
       <c r="K198" s="22" t="n">
-        <v>559573.95239</v>
+        <v>559573.9523900001</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>631691.0411300001</v>
+        <v>632499.6094900001</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>422757.99522</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>423566.56358</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>772602.1850000001</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>20442.13504</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>117799.95215</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>117799.952</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>164.78573</v>
@@ -9276,17 +9698,22 @@
         <v>75.2</v>
       </c>
       <c r="L201" s="22" t="n">
-        <v>4531.02603</v>
+        <v>4608.22603</v>
       </c>
       <c r="M201" s="22" t="n">
-        <v>3894.19946</v>
-      </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+        <v>3971.39946</v>
+      </c>
+      <c r="N201" s="22" t="n">
+        <v>3969.399</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>5169.99116</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>10248.784</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>155.29645</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>155.296</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>155.29645</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>155.296</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>682.5801300000001</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>3.6569</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>678.92323</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>70.11900999999999</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>3211.38774</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>3579.679</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>70.11900999999999</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>3211.38774</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>3579.679</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>549582.7939800001</v>
@@ -9907,26 +10409,31 @@
         <v>734947.45499</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>649780.04418</v>
+        <v>649780.0441800001</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>667301.263</v>
+        <v>667300.36158</v>
       </c>
       <c r="K217" s="23" t="n">
-        <v>841859.8868000001</v>
+        <v>841859.8868</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>612479.3068500002</v>
+        <v>612063.6694700001</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>605115.86788</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>604356.4358099999</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>715936.537</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>4136764.842410001</v>
@@ -9944,29 +10451,34 @@
         <v>6529406.8588</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>7176790.29358</v>
+        <v>7176790.293579999</v>
       </c>
       <c r="I218" s="23" t="n">
         <v>7892818.48102</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>8808959.361479999</v>
+        <v>8808949.361490002</v>
       </c>
       <c r="K218" s="23" t="n">
-        <v>9860051.460379999</v>
+        <v>9860051.460380001</v>
       </c>
       <c r="L218" s="23" t="n">
         <v>677068.04746</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>688983.98855</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>689000.98855</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>703249.679</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>4372598.940119999</v>
@@ -9990,23 +10502,28 @@
         <v>8770644.20898</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>10005868.43048</v>
+        <v>10005768.43049</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>11271288.94519</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>675585.94719</v>
+        <v>677117.1971900001</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>688287.7471899999</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>692517.74719</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>712043.6580000001</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>237644.72196</v>
@@ -10018,7 +10535,7 @@
         <v>85392.83929999999</v>
       </c>
       <c r="F220" s="21" t="n">
-        <v>57391.86358999999</v>
+        <v>57391.86359</v>
       </c>
       <c r="G220" s="22" t="n">
         <v>12183.97689</v>
@@ -10030,23 +10547,28 @@
         <v>879430.16453</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>1198352.87753</v>
+        <v>1198262.87753</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>1412639.57553</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>13326.02065</v>
+        <v>14857.27065</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>14527.44549</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>18740.44549</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>23835.051</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>1811.62425</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>15223.68685</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>15041.072</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>1</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>88088.03658999999</v>
@@ -10138,22 +10670,22 @@
         <v>88343.75448</v>
       </c>
       <c r="F223" s="33" t="n">
-        <v>92380.95624</v>
+        <v>92380.95624000001</v>
       </c>
       <c r="G223" s="23" t="n">
         <v>5049.17112</v>
       </c>
       <c r="H223" s="33" t="n">
-        <v>4344.804389999999</v>
+        <v>4344.80439</v>
       </c>
       <c r="I223" s="23" t="n">
-        <v>4339.804389999999</v>
+        <v>4339.80439</v>
       </c>
       <c r="J223" s="33" t="n">
-        <v>4989.804389999999</v>
+        <v>4989.80439</v>
       </c>
       <c r="K223" s="23" t="n">
-        <v>4896.70439</v>
+        <v>4896.704390000001</v>
       </c>
       <c r="L223" s="23" t="n">
         <v>6962.151</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>6962.151</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>6869.051</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>490.89697</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>2111.1</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>2018</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>87597.13961999999</v>
@@ -10418,22 +10985,22 @@
         <v>87838.47751000001</v>
       </c>
       <c r="F230" s="21" t="n">
-        <v>91890.05927</v>
+        <v>91890.05927000001</v>
       </c>
       <c r="G230" s="22" t="n">
         <v>4558.27415</v>
       </c>
       <c r="H230" s="21" t="n">
-        <v>4251.70439</v>
+        <v>4251.704390000001</v>
       </c>
       <c r="I230" s="22" t="n">
-        <v>4339.804389999999</v>
+        <v>4339.80439</v>
       </c>
       <c r="J230" s="21" t="n">
-        <v>4746.70439</v>
+        <v>4746.704390000001</v>
       </c>
       <c r="K230" s="22" t="n">
-        <v>4896.70439</v>
+        <v>4896.704390000001</v>
       </c>
       <c r="L230" s="22" t="n">
         <v>4851.051</v>
@@ -10441,24 +11008,29 @@
       <c r="M230" s="22" t="n">
         <v>4851.051</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>4851.051</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>110260.12591</v>
       </c>
       <c r="D231" s="23" t="n">
-        <v>63089.38515000001</v>
+        <v>63089.38515</v>
       </c>
       <c r="E231" s="23" t="n">
-        <v>89206.42356000001</v>
+        <v>89206.42356</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>85491.99987</v>
+        <v>85491.99986999999</v>
       </c>
       <c r="G231" s="23" t="n">
         <v>3559.00048</v>
@@ -10467,7 +11039,7 @@
         <v>5419.98085</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>6438.7623</v>
+        <v>6438.762299999999</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>6366.26982</v>
@@ -10481,12 +11053,17 @@
       <c r="M231" s="23" t="n">
         <v>69737.60573000001</v>
       </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+      <c r="N231" s="23" t="n">
+        <v>80325.739</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>12235.55308</v>
@@ -10519,14 +11096,19 @@
         <v>3384.72253</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>5436.34447</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>5436.344470000001</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>7086.189</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>1132.54066</v>
@@ -10561,21 +11143,26 @@
       <c r="M233" s="22" t="n">
         <v>95.72774000000001</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>86.986</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
-        <v>79397.18654000001</v>
+        <v>79397.18654</v>
       </c>
       <c r="D234" s="22" t="n">
         <v>27969.08664</v>
       </c>
       <c r="E234" s="22" t="n">
-        <v>67395.07548</v>
+        <v>67395.07547999998</v>
       </c>
       <c r="F234" s="21" t="n">
         <v>63954.75183</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>2548.52641</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>11448.422</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>17494.84563</v>
@@ -10681,15 +11278,20 @@
       <c r="M236" s="22" t="n">
         <v>61657.00711</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>61704.142</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
-        <v>9157.25549</v>
+        <v>9157.255489999998</v>
       </c>
       <c r="D237" s="23" t="n">
         <v>10933.60334</v>
@@ -10710,23 +11312,28 @@
         <v>16166.61491</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>18512.38155</v>
+        <v>18513.34249</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>22032.86208</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>116420.33947</v>
+        <v>116455.75795</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>166092.28131</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>166132.44918</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>227433.352</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-3429132.38646</v>
@@ -10750,26 +11357,31 @@
         <v>-6470516.83244</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-7274111.878889999</v>
+        <v>-7274102.780320001</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-8186041.94786</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-273046.56414</v>
+        <v>-273471.30565</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-348879.23453</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-349410.32296</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-412972.714</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
-        <v>-365555.0799599999</v>
+        <v>-365555.07996</v>
       </c>
       <c r="D239" s="23" t="n">
         <v>-415375.06929</v>
@@ -10778,35 +11390,40 @@
         <v>-459824.55105</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>-528290.82395</v>
+        <v>-528290.8239499999</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-583813.2477500001</v>
+        <v>-583813.24775</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>-624346.8003199999</v>
+        <v>-624346.8003199998</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-799466.7860000001</v>
+        <v>-799466.786</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-897414.6753499999</v>
+        <v>-897415.6362899999</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>-865588.7718699999</v>
+        <v>-865588.7718700001</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>17431.72961</v>
+        <v>17405.41526</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>22219.07582</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>21933.56431</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>111031.43</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>25237.12246</v>
@@ -10836,17 +11453,22 @@
         <v>20169.03423</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>46709.50597000001</v>
+        <v>46709.50597</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>62518.41507</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>62518.41507000001</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>144517.633</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>390792.2024200001</v>
@@ -10861,7 +11483,7 @@
         <v>533800.1552200001</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>586751.1389</v>
+        <v>586751.1389000001</v>
       </c>
       <c r="H241" s="21" t="n">
         <v>628186.49737</v>
@@ -10870,23 +11492,28 @@
         <v>802401.16184</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>903903.55059</v>
+        <v>903904.51153</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>885757.8061</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>29277.77636</v>
+        <v>29304.09071</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>40299.33925</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>40584.85076</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>33486.203</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>1030677.10241</v>
@@ -10910,20 +11537,23 @@
         <v>1815246.95549</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>2379118.49889</v>
+        <v>2379117.35403</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>3399347.22953</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>2509307.61323</v>
+        <v>2510842.34571</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>2791559.72766</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>2793742.26919</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>3386254.255</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>118</v>
@@ -10966,20 +11599,23 @@
         <v>135</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>129</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>102</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>110</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>116</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>